--- a/Nopcommerce/TestData.xlsx
+++ b/Nopcommerce/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAY\eclipse-workspace\Nopcommerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTING\Github\Demo\Nopcommerce\Nopcommerce\Nopcommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7074052-C741-48E2-AA12-A86DC4F6C293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371EF2A-C07C-4549-9647-BB512CD7B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>UN</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>hkkgmmngyb</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +431,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
